--- a/static/ducoz-email.xlsx
+++ b/static/ducoz-email.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>邮箱</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>标签</t>
+  </si>
+  <si>
+    <t>test1@ducoz.com</t>
+  </si>
+  <si>
+    <t>test2@ducoz.com</t>
   </si>
 </sst>
 </file>
@@ -69,6 +75,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -99,22 +121,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,46 +529,46 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,13 +589,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -601,10 +607,10 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -619,59 +625,61 @@
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1055,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
@@ -1109,24 +1117,38 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
+      <formula1>"美国,日本,加拿大,巴西,墨西哥,英国,德国,法国,西班牙,意大利,荷兰,印度,澳大利亚,土耳其"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"平台,社媒,数据购买"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"KL,MK,YK,EM,工J,J川,机械,XT,XL,未来品牌1,未来品牌2,未来品牌3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
-      <formula1>"美国,日本,加拿大,巴西,墨西哥,英国,德国,法国,西班牙,意大利,荷兰,印度,澳大利亚,土耳其"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"亚马逊,独立站,众筹"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"平台,社媒,数据购买"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="test1@ducoz.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="test2@ducoz.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
